--- a/st00.docs/html&css정리.xlsx
+++ b/st00.docs/html&css정리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="6645" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="6645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -535,9 +535,6 @@
   </si>
   <si>
     <t>태그를 누르고 있는 경우</t>
-  </si>
-  <si>
-    <t>선택자:active</t>
   </si>
   <si>
     <t>반응선택자</t>
@@ -995,6 +992,800 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>태그(요소) 위치를 지정하는 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">float 속성 해제 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none
+left
+right
+both</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽이나 오른쪽에 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4일차
+포지셔닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background: url(a.png) fixed no-repeat;
+background-image: url(a.png);
+background-attachment:fixed;
+background-repeat:no-repeat;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 하나로 배경 제어할 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-attachment:fixed;
+background-attachment:local;
+background-attachment:scroll;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리먼트의 배경 이미지 고정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-attachment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-origin:border-box;
+background-origin:padding-box;
+background-origin:content-box;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리먼트의 배경 이미지 배치 기준 정할 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">엘리먼트의 배경 이미지 표시 위치 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-repeat:repeat; 가로, 세로 반복
+background-repeat:repeat-x; 가로 반복
+background-repeat:repeat-y; 세로 반복
+background-repeat:no-repeat; 반복하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리먼트의 배경 이미지 반복 여부 및 반복 방향 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">background-size:auto; 이미지 원래 크기만큼 표시
+background-size:cotain; 엘리먼트안에 이미지가 들어오도록 확대/축소
+background-size:cover; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">엘리먼트의 배경 이미지 크기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-image: url(a.png);
+background-image: url(./images/a.png);
+background-image: url(../images/a.png);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리먼트의 배경 이미지 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-clip:border-box;
+background-clip:padding-box;
+background-clip:content-box;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리먼트의 배경 적용 범위를 지정할 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-clip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-color:rgba(80%, 40%, 0%, 1);
+background-color:rgba(204, 102, 0, 1);
+background-color:#cc6600;
+background-color:#c60;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리먼트의 배경색 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color:rgba(80%,40%, 0%, 1);
+color:rgba(204,102, 0, 1);
+color:hlsa(80%,40%, 0%, 1);
+color:hlsa(204,102, 0, 1);
+color:#cc6600;
+color:#c60;
+color:red;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트의 색 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3일차
+색상과 배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠의 최대 높이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">max-height </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">min-height: 100%; /* y축 - 꽉찬 화면 */ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠의 최소 높이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">min-height </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height: 200px;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스모델에서의 높이. 디폴트 컨텐츠 높이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">height </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠의 최대 너비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max-width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min-width: 100%; /* x축 - 꽉찬 화면 */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠의 최소 너비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min-width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width: 200px;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스모델에서의 너비. 디폴트 컨텐츠 너비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>margin: 10px 0 0 20px;
+margin: 10px 0;          --&gt; margin: 10px 0 10px 0;
+margin: 10px;            --&gt; margin: 10px 10px 10px 10px;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>margin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>margin-left : 20px;</t>
+  </si>
+  <si>
+    <t>margin-bottom : 0;</t>
+  </si>
+  <si>
+    <t>margin-right : 0;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marging-top : 10px;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>margin
+바깥여백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding: 10px 0 0 20px;
+padding: 10px 0;          --&gt; padding: 10px 0 10px 0;
+padding: 10px;            --&gt; padding: 10px 10px 10px 10px;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding-left : 20px;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding-left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding-bottom : 0;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding-bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding-right : 0;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding-right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding-top : 10px;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding-top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding
+안쪽여백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input 태그에서 사용되는 테두리 태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box-shadow: 20px -20px 5px 0 #ff0000;
+box-shadow: 20px -20px 5px 0 #ff0000 inset;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스에 그림자 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box-shadow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box-sizing: border-box;
+box-sizing: content-box; &lt;--디폴트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스 너비 기준 정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box-sizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-spacing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collapse/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-collapse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-radius: 10px 0 0 10px;
+border-top-radius: 10px;
+border-right-radius: 0;
+border-bottom-radius: 0;
+border-left-radius: 10px;
+border-radius: 10px 0; &lt;-- 10px 0 10px 0;
+border-radius: 5px; &lt;-- 5px 5px 5px 5px;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테두리 모서리 둥글게 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-left:1px solid #00ff00;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-bottom:1px solid #0000ff;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-right:1px solid #00ff00;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-top:1px solid #00ff00;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-width:1px;
+border-style:sloid;
+border-color:#ff0000;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border:1px solid #ff0000;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테두리 두께, 형태, 색깔을 한번에 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테두리 색깔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-style:sloid;  실선:   ---------
+border-style:dotted; 점선:   ……………
+border-style:dashed; 긴점선: -- -- -- --</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테두리 형태. 실선,점선...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thin 
+medium
+thick 
+크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테두리 두께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border
+테두리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2일차
+박스모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list-style:none;
+list-style:disc inside ;
+list-style:square ouside;
+list-style:circle;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록 스타일 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list-style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list-style-position:inside;
+list-style-position:outside;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록에 들여쓰기 효과 내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list-style-position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list-style-image: url( a.png );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록에 불릿 대신 이미지 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list-style-image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list-style-type:none;
+list-style-type:disc;
+list-style-type:square;
+list-style-type:circle;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록 불릿 스타일 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list-style-type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltr : left to right
+rtl : righ to left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 쓰기 방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">word-spacing </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>letter-spacing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white-spacing: wrap;  &lt;-- 디폴트값
+white-spacing: nowrap;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">글자의 줄바꿈 처리 방법 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start/middle/end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 그리기 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-anchor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글자의 그림자 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-shadow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">글자의 대문자/소문자 변환 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-transform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ellipsis/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문단이 영역을 벗어날 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-overflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문단 들여 쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단어 사이 간격 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-justify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line-height: 4em;
+line-height: 15pt;
+line-height: 15px;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">문단의 줄 간격 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문단의 수직 정렬시 사용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line-height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none : 줄긋기 사용 안함.
+underline : 텍스트 아래에 줄긋기
+overline : 텍스트 윗에 줄긋기
+line-through  : 가운데 줄긋기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트에 줄 표시하기 / 없애기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-decoration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-align:left;
+text-align:center;
+text-align:right;
+text-align:justify;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">문단 수평 정렬 방법 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">text-align </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대문자를 소문자로 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-variant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bold
+bolder
+normal
+수치값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글자의 굵기(두께) 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal
+italic
+oblique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">글자의 기울기 설정 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-size:12px;
+font-size:12pt;
+font-size:2em;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글자 크기 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-family: "맑은 고딕", Dotum, sans-serif;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글꼴 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-family</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 폰트 사용 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일차
+폰트와 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class선택자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id선택자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정수값(0 : 기본값) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1015,7 +1806,7 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-relative
+relative; left:0px; top:0px;
 absolute
 </t>
     </r>
@@ -1032,803 +1823,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>태그(요소) 위치를 지정하는 속성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">float 속성 해제 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>none
-left
-right
-both</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽이나 오른쪽에 배치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>block / inline-block
-flex / inline-flex
-none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4일차
-포지셔닝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background: url(a.png) fixed no-repeat;
-background-image: url(a.png);
-background-attachment:fixed;
-background-repeat:no-repeat;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성 하나로 배경 제어할 때</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background-attachment:fixed;
-background-attachment:local;
-background-attachment:scroll;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘리먼트의 배경 이미지 고정하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background-attachment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background-origin:border-box;
-background-origin:padding-box;
-background-origin:content-box;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘리먼트의 배경 이미지 배치 기준 정할 때</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background-origin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">엘리먼트의 배경 이미지 표시 위치 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background-position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background-repeat:repeat; 가로, 세로 반복
-background-repeat:repeat-x; 가로 반복
-background-repeat:repeat-y; 세로 반복
-background-repeat:no-repeat; 반복하지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘리먼트의 배경 이미지 반복 여부 및 반복 방향 지정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background-repeat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">background-size:auto; 이미지 원래 크기만큼 표시
-background-size:cotain; 엘리먼트안에 이미지가 들어오도록 확대/축소
-background-size:cover; </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">엘리먼트의 배경 이미지 크기 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background-size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background-image: url(a.png);
-background-image: url(./images/a.png);
-background-image: url(../images/a.png);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘리먼트의 배경 이미지 지정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background-image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background-clip:border-box;
-background-clip:padding-box;
-background-clip:content-box;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘리먼트의 배경 적용 범위를 지정할 때</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background-clip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background-color:rgba(80%, 40%, 0%, 1);
-background-color:rgba(204, 102, 0, 1);
-background-color:#cc6600;
-background-color:#c60;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘리먼트의 배경색 지정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background-color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color:rgba(80%,40%, 0%, 1);
-color:rgba(204,102, 0, 1);
-color:hlsa(80%,40%, 0%, 1);
-color:hlsa(204,102, 0, 1);
-color:#cc6600;
-color:#c60;
-color:red;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스트의 색 지정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>색상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3일차
-색상과 배경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨텐츠의 최대 높이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">max-height </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">min-height: 100%; /* y축 - 꽉찬 화면 */ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨텐츠의 최소 높이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">min-height </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>height: 200px;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박스모델에서의 높이. 디폴트 컨텐츠 높이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">height </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨텐츠의 최대 너비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max-width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min-width: 100%; /* x축 - 꽉찬 화면 */</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨텐츠의 최소 너비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min-width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width: 200px;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박스모델에서의 너비. 디폴트 컨텐츠 너비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>margin: 10px 0 0 20px;
-margin: 10px 0;          --&gt; margin: 10px 0 10px 0;
-margin: 10px;            --&gt; margin: 10px 10px 10px 10px;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>margin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>margin-left : 20px;</t>
-  </si>
-  <si>
-    <t>margin-bottom : 0;</t>
-  </si>
-  <si>
-    <t>margin-right : 0;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>marging-top : 10px;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>margin
-바깥여백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>padding: 10px 0 0 20px;
-padding: 10px 0;          --&gt; padding: 10px 0 10px 0;
-padding: 10px;            --&gt; padding: 10px 10px 10px 10px;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>padding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>padding-left : 20px;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>padding-left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>padding-bottom : 0;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>padding-bottom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>padding-right : 0;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>padding-right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>padding-top : 10px;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>padding-top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>padding
-안쪽여백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input 태그에서 사용되는 테두리 태그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box-shadow: 20px -20px 5px 0 #ff0000;
-box-shadow: 20px -20px 5px 0 #ff0000 inset;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박스에 그림자 부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box-shadow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box-sizing: border-box;
-box-sizing: content-box; &lt;--디폴트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박스 너비 기준 정하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box-sizing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-spacing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collapse/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-collapse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-radius: 10px 0 0 10px;
-border-top-radius: 10px;
-border-right-radius: 0;
-border-bottom-radius: 0;
-border-left-radius: 10px;
-border-radius: 10px 0; &lt;-- 10px 0 10px 0;
-border-radius: 5px; &lt;-- 5px 5px 5px 5px;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테두리 모서리 둥글게 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-radius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-left:1px solid #00ff00;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-bottom:1px solid #0000ff;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-bottom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-right:1px solid #00ff00;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-top:1px solid #00ff00;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-width:1px;
-border-style:sloid;
-border-color:#ff0000;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border:1px solid #ff0000;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테두리 두께, 형태, 색깔을 한번에 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테두리 색깔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-style:sloid;  실선:   ---------
-border-style:dotted; 점선:   ……………
-border-style:dashed; 긴점선: -- -- -- --</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테두리 형태. 실선,점선...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thin 
-medium
-thick 
-크기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테두리 두께</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border
-테두리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2일차
-박스모델</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박스모델</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list-style:none;
-list-style:disc inside ;
-list-style:square ouside;
-list-style:circle;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목록 스타일 지정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list-style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list-style-position:inside;
-list-style-position:outside;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목록에 들여쓰기 효과 내기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list-style-position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list-style-image: url( a.png );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목록에 불릿 대신 이미지 넣기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list-style-image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list-style-type:none;
-list-style-type:disc;
-list-style-type:square;
-list-style-type:circle;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목록 불릿 스타일 지정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list-style-type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ltr : left to right
-rtl : righ to left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스트 쓰기 방향</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">word-spacing </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>letter-spacing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>white-spacing: wrap;  &lt;-- 디폴트값
-white-spacing: nowrap;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">글자의 줄바꿈 처리 방법 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start/middle/end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스트 그리기 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text-anchor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글자의 그림자 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text-shadow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">글자의 대문자/소문자 변환 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text-transform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ellipsis/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문단이 영역을 벗어날 때</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text-overflow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문단 들여 쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단어 사이 간격 조절</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text-justify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line-height: 4em;
-line-height: 15pt;
-line-height: 15px;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">문단의 줄 간격 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문단의 수직 정렬시 사용</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line-height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>none : 줄긋기 사용 안함.
-underline : 텍스트 아래에 줄긋기
-overline : 텍스트 윗에 줄긋기
-line-through  : 가운데 줄긋기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스트에 줄 표시하기 / 없애기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text-decoration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text-align:left;
-text-align:center;
-text-align:right;
-text-align:justify;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">문단 수평 정렬 방법 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">text-align </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대문자를 소문자로 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font-variant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bold
-bolder
-normal
-수치값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글자의 굵기(두께) 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font-weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal
-italic
-oblique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">글자의 기울기 설정 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font-style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font-size:12px;
-font-size:12pt;
-font-size:2em;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글자 크기 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font-size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font-family: "맑은 고딕", Dotum, sans-serif;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글꼴 지정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font-family</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외부 폰트 사용 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@import</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폰트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1일차
-폰트와 텍스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class선택자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id선택자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">정수값(0 : 기본값) </t>
+flex / inline-flex &lt;---- 반응형웹 사용
+display:none ---&gt;태크를 보이지 않게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택자:active</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2330,6 +2331,99 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2342,13 +2436,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2360,6 +2487,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2367,135 +2497,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -3202,7 +3203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -3273,7 +3274,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="82" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -3284,7 +3285,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="14" t="s">
         <v>78</v>
       </c>
@@ -3293,7 +3294,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="14" t="s">
         <v>117</v>
       </c>
@@ -3302,7 +3303,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="85" t="s">
         <v>119</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -3313,7 +3314,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="14" t="s">
         <v>80</v>
       </c>
@@ -3355,7 +3356,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="85" t="s">
         <v>121</v>
       </c>
       <c r="B18" s="48" t="s">
@@ -3366,7 +3367,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="40" t="s">
         <v>112</v>
       </c>
@@ -3381,7 +3382,7 @@
       <c r="B20" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="85" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3392,11 +3393,11 @@
       <c r="B21" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="84"/>
       <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="82" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -3407,7 +3408,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="45" t="s">
         <v>101</v>
       </c>
@@ -3416,7 +3417,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="85" t="s">
         <v>124</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -3427,7 +3428,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="14" t="s">
         <v>96</v>
       </c>
@@ -3436,7 +3437,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="14" t="s">
         <v>97</v>
       </c>
@@ -3445,7 +3446,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="52"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="14" t="s">
         <v>126</v>
       </c>
@@ -3454,7 +3455,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="14" t="s">
         <v>98</v>
       </c>
@@ -3463,7 +3464,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="14" t="s">
         <v>99</v>
       </c>
@@ -3490,555 +3491,555 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:D55"/>
+    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.375" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.25" style="64" customWidth="1"/>
-    <col min="4" max="4" width="66.375" style="64" customWidth="1"/>
-    <col min="5" max="16384" width="86.625" style="64"/>
+    <col min="1" max="1" width="20.25" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.25" style="51" customWidth="1"/>
+    <col min="4" max="4" width="66.375" style="51" customWidth="1"/>
+    <col min="5" max="16384" width="86.625" style="51"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="81" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="81" t="s">
+        <v>420</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="86" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="65"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="88" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="89"/>
+      <c r="B13" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="89"/>
+      <c r="B14" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="89"/>
+      <c r="B15" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="89"/>
+      <c r="B16" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="89"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="87"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="89"/>
+      <c r="B18" s="87" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="87" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="89"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="87"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="89"/>
+      <c r="B20" s="87" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="90"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="87"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="63"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="92"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="87"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="87"/>
+      <c r="B34" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="56"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="87"/>
+      <c r="B35" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="56"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="87"/>
+      <c r="B36" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="56"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="87"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="56"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="87"/>
+      <c r="B38" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="87"/>
+      <c r="B39" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="87"/>
+      <c r="B40" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="87"/>
+      <c r="B41" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="56"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="87"/>
+      <c r="B42" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="56"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="87"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="87"/>
+      <c r="B44" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="87"/>
+      <c r="B45" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="87"/>
+      <c r="B46" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="56"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="87"/>
+      <c r="B47" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="D47" s="56"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="B50" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="C50" s="55" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="105" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="105" t="s">
-        <v>424</v>
-      </c>
-      <c r="B5" s="105" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="105" t="s">
-        <v>423</v>
-      </c>
-      <c r="B6" s="105" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="106" t="s">
-        <v>218</v>
-      </c>
-      <c r="B7" s="106" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="66" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="73" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
-      <c r="B15" s="66" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="74" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="66" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="74"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="74" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="74" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="66" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="74"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
-      <c r="B20" s="74" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" s="74" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="67"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="D21" s="74"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="82"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="71" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="105" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" s="105" t="s">
-        <v>186</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="66" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="105" t="s">
-        <v>183</v>
-      </c>
-      <c r="B26" s="105" t="s">
-        <v>182</v>
-      </c>
-      <c r="C26" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="66" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="71" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="B32" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" s="79"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="74"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="79"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="74"/>
-      <c r="B34" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="72"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="74"/>
-      <c r="B35" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="72"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="74"/>
-      <c r="B36" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="72"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="72"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="74"/>
-      <c r="B38" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="74"/>
-      <c r="B39" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="74"/>
-      <c r="B40" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="74"/>
-      <c r="B41" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" s="72"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="74"/>
-      <c r="B42" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="D42" s="72"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="74"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="74"/>
-      <c r="B44" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="D44" s="66" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="74"/>
-      <c r="B45" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" s="69" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="74"/>
-      <c r="B46" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="C46" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="72"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="74"/>
-      <c r="B47" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" s="72"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" s="71" t="s">
-        <v>145</v>
+      <c r="D50" s="55" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="B51" s="66" t="s">
+      <c r="A51" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="B51" s="53" t="s">
+        <v>425</v>
+      </c>
+      <c r="C51" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="66" t="s">
+      <c r="D51" s="53" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="68"/>
-      <c r="B52" s="69" t="s">
+      <c r="A52" s="89"/>
+      <c r="B52" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="69" t="s">
+      <c r="C52" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="69" t="s">
+      <c r="D52" s="54" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="68"/>
-      <c r="B53" s="66" t="s">
+      <c r="A53" s="89"/>
+      <c r="B53" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="66" t="s">
+      <c r="D53" s="53" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="68"/>
-      <c r="B54" s="66" t="s">
+      <c r="A54" s="89"/>
+      <c r="B54" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="66" t="s">
+      <c r="D54" s="53" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="67"/>
-      <c r="B55" s="66" t="s">
+      <c r="A55" s="90"/>
+      <c r="B55" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="66" t="s">
+      <c r="D55" s="53" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4070,8 +4071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4093,701 +4094,701 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
-        <v>422</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>421</v>
-      </c>
-      <c r="C2" s="104" t="s">
-        <v>420</v>
-      </c>
-      <c r="D2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>419</v>
       </c>
+      <c r="B2" s="98" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>416</v>
+      </c>
       <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="55"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="102" t="s">
-        <v>419</v>
+      <c r="D3" s="78" t="s">
+        <v>416</v>
       </c>
       <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="D4" s="103" t="s">
-        <v>417</v>
+        <v>415</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>414</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="55"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="D5" s="102" t="s">
-        <v>414</v>
-      </c>
-      <c r="E5" s="93" t="s">
-        <v>413</v>
+        <v>412</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>411</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="55"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="16" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="55"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="16" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="55" t="s">
-        <v>404</v>
+      <c r="A9" s="100"/>
+      <c r="B9" s="98" t="s">
+        <v>401</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="19" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="19" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="55"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="19" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E15" s="5"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="18" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E16" s="20"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="55"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="101" t="s">
-        <v>381</v>
-      </c>
-      <c r="E18" s="93" t="s">
-        <v>380</v>
+      <c r="D18" s="77" t="s">
+        <v>378</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="98"/>
       <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="55" t="s">
-        <v>375</v>
+      <c r="A22" s="100"/>
+      <c r="B22" s="98" t="s">
+        <v>372</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="18" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="E25" s="93" t="s">
-        <v>363</v>
+        <v>361</v>
+      </c>
+      <c r="E25" s="71" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="100"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="97"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="73"/>
     </row>
     <row r="27" spans="1:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="49"/>
       <c r="B27" s="49" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="27"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A28" s="60" t="s">
-        <v>361</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>360</v>
+      <c r="A28" s="102" t="s">
+        <v>358</v>
+      </c>
+      <c r="B28" s="102" t="s">
+        <v>357</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="96" t="s">
-        <v>351</v>
-      </c>
-      <c r="D31" s="95" t="s">
-        <v>350</v>
+        <v>348</v>
+      </c>
+      <c r="D31" s="97" t="s">
+        <v>347</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="96"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="93" t="s">
-        <v>348</v>
+      <c r="D32" s="97"/>
+      <c r="E32" s="71" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="120" x14ac:dyDescent="0.3">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="D37" s="94" t="s">
-        <v>338</v>
-      </c>
-      <c r="E37" s="93" t="s">
-        <v>337</v>
+        <v>336</v>
+      </c>
+      <c r="D37" s="72" t="s">
+        <v>335</v>
+      </c>
+      <c r="E37" s="71" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
+      <c r="A38" s="98"/>
+      <c r="B38" s="98"/>
       <c r="C38" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="55"/>
-      <c r="B39" s="55"/>
+      <c r="A39" s="98"/>
+      <c r="B39" s="98"/>
       <c r="C39" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A40" s="55"/>
-      <c r="B40" s="55"/>
+      <c r="A40" s="98"/>
+      <c r="B40" s="98"/>
       <c r="C40" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="D40" s="94" t="s">
-        <v>332</v>
-      </c>
-      <c r="E40" s="93" t="s">
-        <v>331</v>
+        <v>330</v>
+      </c>
+      <c r="D40" s="72" t="s">
+        <v>329</v>
+      </c>
+      <c r="E40" s="71" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
       <c r="C41" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="D41" s="94" t="s">
-        <v>329</v>
-      </c>
-      <c r="E41" s="93" t="s">
-        <v>328</v>
+        <v>327</v>
+      </c>
+      <c r="D41" s="72" t="s">
+        <v>326</v>
+      </c>
+      <c r="E41" s="71" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A42" s="55"/>
-      <c r="B42" s="55"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
       <c r="C42" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="55"/>
-      <c r="B43" s="60" t="s">
-        <v>325</v>
+      <c r="A43" s="98"/>
+      <c r="B43" s="102" t="s">
+        <v>322</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="55"/>
-      <c r="B44" s="55"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
       <c r="C44" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="55"/>
-      <c r="B45" s="55"/>
+      <c r="A45" s="98"/>
+      <c r="B45" s="98"/>
       <c r="C45" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
-      <c r="B46" s="55"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="98"/>
       <c r="C46" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
-      <c r="B47" s="55"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="98"/>
       <c r="C47" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D47" s="39"/>
       <c r="E47" s="17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="55"/>
-      <c r="B48" s="60" t="s">
-        <v>314</v>
+      <c r="A48" s="98"/>
+      <c r="B48" s="102" t="s">
+        <v>311</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="55"/>
-      <c r="B49" s="55"/>
+      <c r="A49" s="98"/>
+      <c r="B49" s="98"/>
       <c r="C49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="98"/>
       <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="55"/>
-      <c r="B51" s="55"/>
+      <c r="A51" s="98"/>
+      <c r="B51" s="98"/>
       <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A52" s="55"/>
-      <c r="B52" s="55"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="98"/>
       <c r="C52" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D52" s="39"/>
       <c r="E52" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A53" s="55"/>
-      <c r="B53" s="55" t="s">
-        <v>307</v>
+      <c r="A53" s="98"/>
+      <c r="B53" s="98" t="s">
+        <v>304</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D53" s="39" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="55"/>
-      <c r="B54" s="55"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="98"/>
       <c r="C54" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="55"/>
-      <c r="B55" s="55"/>
+      <c r="A55" s="98"/>
+      <c r="B55" s="98"/>
       <c r="C55" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A56" s="55"/>
-      <c r="B56" s="55" t="s">
-        <v>299</v>
+      <c r="A56" s="98"/>
+      <c r="B56" s="98" t="s">
+        <v>296</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="55"/>
-      <c r="B57" s="55"/>
+      <c r="A57" s="98"/>
+      <c r="B57" s="98"/>
       <c r="C57" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="55"/>
-      <c r="B58" s="55"/>
+      <c r="A58" s="98"/>
+      <c r="B58" s="98"/>
       <c r="C58" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E58" s="5"/>
     </row>
@@ -4799,145 +4800,145 @@
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="105" x14ac:dyDescent="0.3">
-      <c r="A60" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="B60" s="92" t="s">
-        <v>290</v>
+      <c r="A60" s="103" t="s">
+        <v>288</v>
+      </c>
+      <c r="B60" s="70" t="s">
+        <v>287</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A61" s="58"/>
-      <c r="B61" s="55" t="s">
-        <v>286</v>
+      <c r="A61" s="100"/>
+      <c r="B61" s="98" t="s">
+        <v>283</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A62" s="58"/>
-      <c r="B62" s="55"/>
+      <c r="A62" s="100"/>
+      <c r="B62" s="98"/>
       <c r="C62" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A63" s="58"/>
-      <c r="B63" s="55"/>
+      <c r="A63" s="100"/>
+      <c r="B63" s="98"/>
       <c r="C63" s="34" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E63" s="36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A64" s="58"/>
-      <c r="B64" s="55"/>
+      <c r="A64" s="100"/>
+      <c r="B64" s="98"/>
       <c r="C64" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A65" s="58"/>
-      <c r="B65" s="55"/>
+      <c r="A65" s="100"/>
+      <c r="B65" s="98"/>
       <c r="C65" s="34" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A66" s="58"/>
-      <c r="B66" s="55"/>
+      <c r="A66" s="100"/>
+      <c r="B66" s="98"/>
       <c r="C66" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A67" s="58"/>
-      <c r="B67" s="55"/>
+      <c r="A67" s="100"/>
+      <c r="B67" s="98"/>
       <c r="C67" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A68" s="58"/>
-      <c r="B68" s="55"/>
+      <c r="A68" s="100"/>
+      <c r="B68" s="98"/>
       <c r="C68" s="34" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="75" x14ac:dyDescent="0.3">
-      <c r="A69" s="59"/>
-      <c r="B69" s="55"/>
+      <c r="A69" s="101"/>
+      <c r="B69" s="98"/>
       <c r="C69" s="33" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D69" s="37" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E69" s="38" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="91"/>
+      <c r="A70" s="69"/>
       <c r="B70" s="6"/>
-      <c r="C70" s="90"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="88"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="66"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
@@ -4947,129 +4948,129 @@
       <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A72" s="87" t="s">
-        <v>259</v>
-      </c>
-      <c r="B72" s="57" t="s">
-        <v>258</v>
+      <c r="A72" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="B72" s="99" t="s">
+        <v>255</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D72" s="35"/>
       <c r="E72" s="36" t="s">
-        <v>256</v>
+        <v>424</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A73" s="86"/>
-      <c r="B73" s="58"/>
+      <c r="A73" s="94"/>
+      <c r="B73" s="100"/>
       <c r="C73" s="34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="86"/>
-      <c r="B74" s="58"/>
+      <c r="A74" s="94"/>
+      <c r="B74" s="100"/>
       <c r="C74" s="34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E74" s="34"/>
     </row>
     <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A75" s="86"/>
-      <c r="B75" s="58"/>
+      <c r="A75" s="94"/>
+      <c r="B75" s="100"/>
       <c r="C75" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E75" s="36" t="s">
-        <v>248</v>
+        <v>423</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A76" s="86"/>
-      <c r="B76" s="58"/>
+      <c r="A76" s="94"/>
+      <c r="B76" s="100"/>
       <c r="C76" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A77" s="86"/>
-      <c r="B77" s="58"/>
+      <c r="A77" s="94"/>
+      <c r="B77" s="100"/>
       <c r="C77" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A78" s="86"/>
-      <c r="B78" s="58"/>
+      <c r="A78" s="94"/>
+      <c r="B78" s="100"/>
       <c r="C78" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E78" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A79" s="86"/>
-      <c r="B79" s="58"/>
+      <c r="A79" s="94"/>
+      <c r="B79" s="100"/>
       <c r="C79" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A80" s="86"/>
-      <c r="B80" s="58"/>
+      <c r="A80" s="94"/>
+      <c r="B80" s="100"/>
       <c r="C80" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E80" s="34"/>
     </row>
     <row r="81" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A81" s="85"/>
-      <c r="B81" s="59"/>
+      <c r="A81" s="95"/>
+      <c r="B81" s="101"/>
       <c r="C81" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5102,7 +5103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5125,7 +5126,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="104" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="50" t="s">
@@ -5136,7 +5137,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
+      <c r="A3" s="104"/>
       <c r="B3" s="50" t="s">
         <v>21</v>
       </c>
@@ -5145,7 +5146,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="104" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="50" t="s">
@@ -5156,7 +5157,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="50" t="s">
         <v>27</v>
       </c>
@@ -5165,7 +5166,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="50" t="s">
         <v>29</v>
       </c>
@@ -5174,7 +5175,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="50" t="s">
         <v>24</v>
       </c>
@@ -5183,7 +5184,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="104" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="50" t="s">
@@ -5194,7 +5195,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="50" t="s">
         <v>36</v>
       </c>
@@ -5203,7 +5204,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="50" t="s">
         <v>33</v>
       </c>
@@ -5212,25 +5213,25 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="105" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="105" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
+      <c r="A12" s="106"/>
       <c r="B12" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="106"/>
     </row>
     <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="104" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="50" t="s">
@@ -5241,7 +5242,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="50" t="s">
         <v>46</v>
       </c>
@@ -5250,7 +5251,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="50" t="s">
         <v>48</v>
       </c>
@@ -5259,7 +5260,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="50" t="s">
         <v>50</v>
       </c>
@@ -5268,7 +5269,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="50" t="s">
         <v>43</v>
       </c>
@@ -5277,7 +5278,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="104" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="50" t="s">
@@ -5288,7 +5289,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="50" t="s">
         <v>44</v>
       </c>
@@ -5297,7 +5298,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="50" t="s">
         <v>46</v>
       </c>
@@ -5306,7 +5307,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="50" t="s">
         <v>48</v>
       </c>
@@ -5315,7 +5316,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="50" t="s">
         <v>54</v>
       </c>
@@ -5324,7 +5325,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="104" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="50" t="s">
@@ -5335,42 +5336,42 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="50" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
+      <c r="A25" s="104"/>
       <c r="B25" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
+      <c r="A26" s="104"/>
       <c r="B26" s="50" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
+      <c r="A27" s="104"/>
       <c r="B27" s="50" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="23"/>
     </row>
     <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
+      <c r="A28" s="104"/>
       <c r="B28" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="23"/>
     </row>
     <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="104" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="50" t="s">
@@ -5379,35 +5380,35 @@
       <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
+      <c r="A30" s="104"/>
       <c r="B30" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="23"/>
     </row>
     <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
+      <c r="A31" s="104"/>
       <c r="B31" s="50" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="23"/>
     </row>
     <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
+      <c r="A32" s="104"/>
       <c r="B32" s="50" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
+      <c r="A33" s="104"/>
       <c r="B33" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
+      <c r="A34" s="104"/>
       <c r="B34" s="50" t="s">
         <v>43</v>
       </c>
@@ -5418,14 +5419,14 @@
         <v>64</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C35" s="50" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="104" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="50" t="s">
@@ -5436,7 +5437,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
+      <c r="A37" s="104"/>
       <c r="B37" s="50" t="s">
         <v>72</v>
       </c>
@@ -5445,7 +5446,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
+      <c r="A38" s="104"/>
       <c r="B38" s="50" t="s">
         <v>73</v>
       </c>
